--- a/data/Subset1_WithDialogActs/HILLARY LEWIS-WOLFSEN pt 7_.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/HILLARY LEWIS-WOLFSEN pt 7_.xlsx_with_dialog_acts.xlsx
@@ -1231,12 +1231,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1763,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
